--- a/lab4/Lab4TestKeysGudsoft.xlsx
+++ b/lab4/Lab4TestKeysGudsoft.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Test case</t>
   </si>
@@ -33,44 +34,44 @@
     <t>Фактический результат</t>
   </si>
   <si>
-    <t>Ввести дату заезда</t>
-  </si>
-  <si>
-    <t>Ввести дату выезда</t>
-  </si>
-  <si>
-    <t>Произведен поиск номера. Отображаются все возможные варианты номеров</t>
-  </si>
-  <si>
     <t>Зайти на главную страницу</t>
   </si>
   <si>
-    <t>Ввести неверную дату нельзя. Она неактивна</t>
-  </si>
-  <si>
-    <t>Нажать "Найти номер"</t>
-  </si>
-  <si>
-    <t>Раскрыть список дата заезда</t>
-  </si>
-  <si>
-    <t>Раскрыть список дата отъезда</t>
-  </si>
-  <si>
-    <t>Даты в прошлом не доступны для выбора</t>
-  </si>
-  <si>
     <t>отправка письма в разделе "Написать нам" с корректными данными</t>
   </si>
   <si>
     <t>отправка письма в разделе "Написать нам" с некорректными данными</t>
+  </si>
+  <si>
+    <t>Ввести имя</t>
+  </si>
+  <si>
+    <t>Написать ссообщение</t>
+  </si>
+  <si>
+    <t>Ввести почту</t>
+  </si>
+  <si>
+    <t>Надпись "письмо отрпавлено успешно"</t>
+  </si>
+  <si>
+    <t>Перейти в раздел контакты</t>
+  </si>
+  <si>
+    <t>Ошибка! Не найден *.php файл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести почту с неккоректным видом </t>
+  </si>
+  <si>
+    <t>Раздел "почта" подсвечивается красным</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +98,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,11 +180,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -187,7 +235,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -196,16 +250,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +569,7 @@
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -524,89 +584,119 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="12"/>
+    </row>
     <row r="21" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -630,13 +720,25 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>